--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H2">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J2">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="N2">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="O2">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="P2">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="Q2">
-        <v>649.3452725193384</v>
+        <v>664.7181085510947</v>
       </c>
       <c r="R2">
-        <v>649.3452725193384</v>
+        <v>5982.462976959851</v>
       </c>
       <c r="S2">
-        <v>0.0778025288714085</v>
+        <v>0.07434962086434618</v>
       </c>
       <c r="T2">
-        <v>0.0778025288714085</v>
+        <v>0.07434962086434618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H3">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J3">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="N3">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="O3">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="P3">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="Q3">
-        <v>404.8021874537018</v>
+        <v>412.437086808596</v>
       </c>
       <c r="R3">
-        <v>404.8021874537018</v>
+        <v>3711.933781277364</v>
       </c>
       <c r="S3">
-        <v>0.0485021377831591</v>
+        <v>0.04613164684418624</v>
       </c>
       <c r="T3">
-        <v>0.0485021377831591</v>
+        <v>0.04613164684418623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H4">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J4">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="N4">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="O4">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="P4">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="Q4">
-        <v>1095.691377172545</v>
+        <v>1111.265678377343</v>
       </c>
       <c r="R4">
-        <v>1095.691377172545</v>
+        <v>10001.39110539608</v>
       </c>
       <c r="S4">
-        <v>0.1312823294699223</v>
+        <v>0.1242965714398993</v>
       </c>
       <c r="T4">
-        <v>0.1312823294699223</v>
+        <v>0.1242965714398993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H5">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I5">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J5">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.7085193886251</v>
+        <v>63.081098</v>
       </c>
       <c r="N5">
-        <v>51.7085193886251</v>
+        <v>189.243294</v>
       </c>
       <c r="O5">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="P5">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="Q5">
-        <v>533.8765966813219</v>
+        <v>660.5133878583454</v>
       </c>
       <c r="R5">
-        <v>533.8765966813219</v>
+        <v>5944.620490725108</v>
       </c>
       <c r="S5">
-        <v>0.06396743163450201</v>
+        <v>0.07387931715917437</v>
       </c>
       <c r="T5">
-        <v>0.06396743163450201</v>
+        <v>0.07387931715917435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3247318429072</v>
+        <v>10.47086066666667</v>
       </c>
       <c r="H6">
-        <v>10.3247318429072</v>
+        <v>31.412582</v>
       </c>
       <c r="I6">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="J6">
-        <v>0.3427628313588265</v>
+        <v>0.340259118787888</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1439609301483</v>
+        <v>18.44461433333333</v>
       </c>
       <c r="N6">
-        <v>17.1439609301483</v>
+        <v>55.333843</v>
       </c>
       <c r="O6">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155136</v>
       </c>
       <c r="P6">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155135</v>
       </c>
       <c r="Q6">
-        <v>177.0067993290591</v>
+        <v>193.1309867347362</v>
       </c>
       <c r="R6">
-        <v>177.0067993290591</v>
+        <v>1738.178880612626</v>
       </c>
       <c r="S6">
-        <v>0.02120840359983462</v>
+        <v>0.02160196248028192</v>
       </c>
       <c r="T6">
-        <v>0.02120840359983462</v>
+        <v>0.02160196248028192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H7">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I7">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J7">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="N7">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="O7">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="P7">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="Q7">
-        <v>795.6463910256399</v>
+        <v>815.3164405471447</v>
       </c>
       <c r="R7">
-        <v>795.6463910256399</v>
+        <v>7337.847964924301</v>
       </c>
       <c r="S7">
-        <v>0.09533187339461342</v>
+        <v>0.09119424829764347</v>
       </c>
       <c r="T7">
-        <v>0.09533187339461342</v>
+        <v>0.09119424829764346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H8">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I8">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J8">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="N8">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="O8">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="P8">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="Q8">
-        <v>496.006382362983</v>
+        <v>505.878707440946</v>
       </c>
       <c r="R8">
-        <v>496.006382362983</v>
+        <v>4552.908366968514</v>
       </c>
       <c r="S8">
-        <v>0.05942994046060385</v>
+        <v>0.05658321868733737</v>
       </c>
       <c r="T8">
-        <v>0.05942994046060385</v>
+        <v>0.05658321868733734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H9">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I9">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J9">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="N9">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="O9">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="P9">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="Q9">
-        <v>1342.556767284827</v>
+        <v>1363.033691637693</v>
       </c>
       <c r="R9">
-        <v>1342.556767284827</v>
+        <v>12267.30322473923</v>
       </c>
       <c r="S9">
-        <v>0.1608609719185595</v>
+        <v>0.1524571647664129</v>
       </c>
       <c r="T9">
-        <v>0.1608609719185595</v>
+        <v>0.1524571647664129</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H10">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I10">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J10">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.7085193886251</v>
+        <v>63.081098</v>
       </c>
       <c r="N10">
-        <v>51.7085193886251</v>
+        <v>189.243294</v>
       </c>
       <c r="O10">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="P10">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="Q10">
-        <v>654.1619772705659</v>
+        <v>810.1590996162953</v>
       </c>
       <c r="R10">
-        <v>654.1619772705659</v>
+        <v>7291.431896546657</v>
       </c>
       <c r="S10">
-        <v>0.07837965143829569</v>
+        <v>0.09061739272842688</v>
       </c>
       <c r="T10">
-        <v>0.07837965143829569</v>
+        <v>0.09061739272842685</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.6509516227701</v>
+        <v>12.84313566666667</v>
       </c>
       <c r="H11">
-        <v>12.6509516227701</v>
+        <v>38.529407</v>
       </c>
       <c r="I11">
-        <v>0.4199892126576749</v>
+        <v>0.417348120993043</v>
       </c>
       <c r="J11">
-        <v>0.4199892126576749</v>
+        <v>0.4173481209930429</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.1439609301483</v>
+        <v>18.44461433333333</v>
       </c>
       <c r="N11">
-        <v>17.1439609301483</v>
+        <v>55.333843</v>
       </c>
       <c r="O11">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155136</v>
       </c>
       <c r="P11">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155135</v>
       </c>
       <c r="Q11">
-        <v>216.8874203499668</v>
+        <v>236.8866842023446</v>
       </c>
       <c r="R11">
-        <v>216.8874203499668</v>
+        <v>2131.980157821101</v>
       </c>
       <c r="S11">
-        <v>0.0259867754456025</v>
+        <v>0.02649609651322237</v>
       </c>
       <c r="T11">
-        <v>0.0259867754456025</v>
+        <v>0.02649609651322236</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H12">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I12">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J12">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="N12">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="O12">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="P12">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="Q12">
-        <v>106.7847577411063</v>
+        <v>115.5937593994893</v>
       </c>
       <c r="R12">
-        <v>106.7847577411063</v>
+        <v>1040.343834595404</v>
       </c>
       <c r="S12">
-        <v>0.01279461720718289</v>
+        <v>0.01292931857140141</v>
       </c>
       <c r="T12">
-        <v>0.01279461720718289</v>
+        <v>0.01292931857140141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H13">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I13">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J13">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="N13">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="O13">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="P13">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="Q13">
-        <v>66.56967463950561</v>
+        <v>71.72236285829202</v>
       </c>
       <c r="R13">
-        <v>66.56967463950561</v>
+        <v>645.5012657246281</v>
       </c>
       <c r="S13">
-        <v>0.007976171156225918</v>
+        <v>0.00802224344035481</v>
       </c>
       <c r="T13">
-        <v>0.007976171156225918</v>
+        <v>0.008022243440354808</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H14">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I14">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J14">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="N14">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="O14">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="P14">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="Q14">
-        <v>180.1863249368691</v>
+        <v>193.2478983237853</v>
       </c>
       <c r="R14">
-        <v>180.1863249368691</v>
+        <v>1739.231084914068</v>
       </c>
       <c r="S14">
-        <v>0.02158936445897703</v>
+        <v>0.02161503919988476</v>
       </c>
       <c r="T14">
-        <v>0.02158936445897703</v>
+        <v>0.02161503919988475</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H15">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I15">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J15">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.7085193886251</v>
+        <v>63.081098</v>
       </c>
       <c r="N15">
-        <v>51.7085193886251</v>
+        <v>189.243294</v>
       </c>
       <c r="O15">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="P15">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="Q15">
-        <v>87.79594686055631</v>
+        <v>114.8625630233907</v>
       </c>
       <c r="R15">
-        <v>87.79594686055631</v>
+        <v>1033.763067210516</v>
       </c>
       <c r="S15">
-        <v>0.01051943700754001</v>
+        <v>0.01284753326626083</v>
       </c>
       <c r="T15">
-        <v>0.01051943700754001</v>
+        <v>0.01284753326626083</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.69790100158756</v>
+        <v>1.820871333333334</v>
       </c>
       <c r="H16">
-        <v>1.69790100158756</v>
+        <v>5.462614</v>
       </c>
       <c r="I16">
-        <v>0.05636730943970632</v>
+        <v>0.0591706923651924</v>
       </c>
       <c r="J16">
-        <v>0.05636730943970632</v>
+        <v>0.05917069236519239</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.1439609301483</v>
+        <v>18.44461433333333</v>
       </c>
       <c r="N16">
-        <v>17.1439609301483</v>
+        <v>55.333843</v>
       </c>
       <c r="O16">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155136</v>
       </c>
       <c r="P16">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155135</v>
       </c>
       <c r="Q16">
-        <v>29.10874843447679</v>
+        <v>33.58526949395578</v>
       </c>
       <c r="R16">
-        <v>29.10874843447679</v>
+        <v>302.267425445602</v>
       </c>
       <c r="S16">
-        <v>0.003487719609780482</v>
+        <v>0.003756557887290601</v>
       </c>
       <c r="T16">
-        <v>0.003487719609780482</v>
+        <v>0.0037565578872906</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H17">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I17">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J17">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="N17">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="O17">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="P17">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="Q17">
-        <v>136.1962144574023</v>
+        <v>137.7510705955746</v>
       </c>
       <c r="R17">
-        <v>136.1962144574023</v>
+        <v>1239.759635360172</v>
       </c>
       <c r="S17">
-        <v>0.01631860638083418</v>
+        <v>0.01540764384283584</v>
       </c>
       <c r="T17">
-        <v>0.01631860638083418</v>
+        <v>0.01540764384283584</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H18">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I18">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J18">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="N18">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="O18">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="P18">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="Q18">
-        <v>84.90479236318455</v>
+        <v>85.470291135956</v>
       </c>
       <c r="R18">
-        <v>84.90479236318455</v>
+        <v>769.2326202236039</v>
       </c>
       <c r="S18">
-        <v>0.01017302787703114</v>
+        <v>0.009559967841067404</v>
       </c>
       <c r="T18">
-        <v>0.01017302787703114</v>
+        <v>0.009559967841067402</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H19">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I19">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J19">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="N19">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="O19">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="P19">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="Q19">
-        <v>229.8145903265571</v>
+        <v>230.2901559975026</v>
       </c>
       <c r="R19">
-        <v>229.8145903265571</v>
+        <v>2072.611403977523</v>
       </c>
       <c r="S19">
-        <v>0.02753566870454174</v>
+        <v>0.0257582658978958</v>
       </c>
       <c r="T19">
-        <v>0.02753566870454174</v>
+        <v>0.02575826589789579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H20">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I20">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J20">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>51.7085193886251</v>
+        <v>63.081098</v>
       </c>
       <c r="N20">
-        <v>51.7085193886251</v>
+        <v>189.243294</v>
       </c>
       <c r="O20">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="P20">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="Q20">
-        <v>111.9773632497369</v>
+        <v>136.8797166042653</v>
       </c>
       <c r="R20">
-        <v>111.9773632497369</v>
+        <v>1231.917449438388</v>
       </c>
       <c r="S20">
-        <v>0.01341677903248675</v>
+        <v>0.01531018171857734</v>
       </c>
       <c r="T20">
-        <v>0.01341677903248675</v>
+        <v>0.01531018171857734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.16554959557341</v>
+        <v>2.169900666666666</v>
       </c>
       <c r="H21">
-        <v>2.16554959557341</v>
+        <v>6.509701999999999</v>
       </c>
       <c r="I21">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="J21">
-        <v>0.07189241542739168</v>
+        <v>0.07051268393320077</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.1439609301483</v>
+        <v>18.44461433333333</v>
       </c>
       <c r="N21">
-        <v>17.1439609301483</v>
+        <v>55.333843</v>
       </c>
       <c r="O21">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155136</v>
       </c>
       <c r="P21">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155135</v>
       </c>
       <c r="Q21">
-        <v>37.12609765880899</v>
+        <v>40.02298093830955</v>
       </c>
       <c r="R21">
-        <v>37.12609765880899</v>
+        <v>360.206828444786</v>
       </c>
       <c r="S21">
-        <v>0.004448333432497877</v>
+        <v>0.004476624632824394</v>
       </c>
       <c r="T21">
-        <v>0.004448333432497877</v>
+        <v>0.004476624632824393</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H22">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I22">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J22">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>62.8922167083129</v>
+        <v>63.482662</v>
       </c>
       <c r="N22">
-        <v>62.8922167083129</v>
+        <v>190.447986</v>
       </c>
       <c r="O22">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="P22">
-        <v>0.2269864808940143</v>
+        <v>0.218508826829398</v>
       </c>
       <c r="Q22">
-        <v>206.4721905672209</v>
+        <v>220.185042395336</v>
       </c>
       <c r="R22">
-        <v>206.4721905672209</v>
+        <v>1981.665381558024</v>
       </c>
       <c r="S22">
-        <v>0.02473885503997529</v>
+        <v>0.02462799525317109</v>
       </c>
       <c r="T22">
-        <v>0.02473885503997529</v>
+        <v>0.02462799525317108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H23">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I23">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J23">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>39.207041268756</v>
+        <v>39.389034</v>
       </c>
       <c r="N23">
-        <v>39.207041268756</v>
+        <v>118.167102</v>
       </c>
       <c r="O23">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="P23">
-        <v>0.141503492636236</v>
+        <v>0.13557798835347</v>
       </c>
       <c r="Q23">
-        <v>128.7148731609184</v>
+        <v>136.618028418552</v>
       </c>
       <c r="R23">
-        <v>128.7148731609184</v>
+        <v>1229.562255766968</v>
       </c>
       <c r="S23">
-        <v>0.01542221535921599</v>
+        <v>0.01528091154052416</v>
       </c>
       <c r="T23">
-        <v>0.01542221535921599</v>
+        <v>0.01528091154052416</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H24">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I24">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J24">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>106.122986421701</v>
+        <v>106.129354</v>
       </c>
       <c r="N24">
-        <v>106.122986421701</v>
+        <v>318.388062</v>
       </c>
       <c r="O24">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092653</v>
       </c>
       <c r="P24">
-        <v>0.383012151432742</v>
+        <v>0.3652997512092652</v>
       </c>
       <c r="Q24">
-        <v>348.3967750357233</v>
+        <v>368.1020230355119</v>
       </c>
       <c r="R24">
-        <v>348.3967750357233</v>
+        <v>3312.918207319608</v>
       </c>
       <c r="S24">
-        <v>0.04174381688074154</v>
+        <v>0.04117270990517244</v>
       </c>
       <c r="T24">
-        <v>0.04174381688074154</v>
+        <v>0.04117270990517243</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H25">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I25">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J25">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>51.7085193886251</v>
+        <v>63.081098</v>
       </c>
       <c r="N25">
-        <v>51.7085193886251</v>
+        <v>189.243294</v>
       </c>
       <c r="O25">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="P25">
-        <v>0.186623010963335</v>
+        <v>0.2171266340263155</v>
       </c>
       <c r="Q25">
-        <v>169.756638069745</v>
+        <v>218.792246573944</v>
       </c>
       <c r="R25">
-        <v>169.756638069745</v>
+        <v>1969.130219165496</v>
       </c>
       <c r="S25">
-        <v>0.02033971185051053</v>
+        <v>0.02447220915387606</v>
       </c>
       <c r="T25">
-        <v>0.02033971185051053</v>
+        <v>0.02447220915387606</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.28295298486323</v>
+        <v>3.468428</v>
       </c>
       <c r="H26">
-        <v>3.28295298486323</v>
+        <v>10.405284</v>
       </c>
       <c r="I26">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="J26">
-        <v>0.1089882311164007</v>
+        <v>0.1127093839206758</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.1439609301483</v>
+        <v>18.44461433333333</v>
       </c>
       <c r="N26">
-        <v>17.1439609301483</v>
+        <v>55.333843</v>
       </c>
       <c r="O26">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155136</v>
       </c>
       <c r="P26">
-        <v>0.0618748640736728</v>
+        <v>0.06348679958155135</v>
       </c>
       <c r="Q26">
-        <v>56.28281770800896</v>
+        <v>63.97381680293466</v>
       </c>
       <c r="R26">
-        <v>56.28281770800896</v>
+        <v>575.764351226412</v>
       </c>
       <c r="S26">
-        <v>0.006743631985957328</v>
+        <v>0.007155558067932073</v>
       </c>
       <c r="T26">
-        <v>0.006743631985957328</v>
+        <v>0.007155558067932071</v>
       </c>
     </row>
   </sheetData>
